--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2727,28 +2727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>972.9023856504106</v>
+        <v>1197.936889641937</v>
       </c>
       <c r="AB2" t="n">
-        <v>1331.167965470905</v>
+        <v>1639.070101653758</v>
       </c>
       <c r="AC2" t="n">
-        <v>1204.123163152335</v>
+        <v>1482.639551601258</v>
       </c>
       <c r="AD2" t="n">
-        <v>972902.3856504105</v>
+        <v>1197936.889641937</v>
       </c>
       <c r="AE2" t="n">
-        <v>1331167.965470905</v>
+        <v>1639070.101653758</v>
       </c>
       <c r="AF2" t="n">
         <v>3.470846761535592e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.21990740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>1204123.163152335</v>
+        <v>1482639.551601258</v>
       </c>
     </row>
     <row r="3">
@@ -2833,28 +2833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>621.9075586465375</v>
+        <v>788.1767695971934</v>
       </c>
       <c r="AB3" t="n">
-        <v>850.921358365301</v>
+        <v>1078.418228067877</v>
       </c>
       <c r="AC3" t="n">
-        <v>769.7106181985433</v>
+        <v>975.4955059505678</v>
       </c>
       <c r="AD3" t="n">
-        <v>621907.5586465375</v>
+        <v>788176.7695971933</v>
       </c>
       <c r="AE3" t="n">
-        <v>850921.358365301</v>
+        <v>1078418.228067877</v>
       </c>
       <c r="AF3" t="n">
         <v>4.849286196230232e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.36111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>769710.6181985433</v>
+        <v>975495.5059505678</v>
       </c>
     </row>
     <row r="4">
@@ -2939,28 +2939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>541.3228588261611</v>
+        <v>688.0491926549012</v>
       </c>
       <c r="AB4" t="n">
-        <v>740.6618169250157</v>
+        <v>941.4192599784972</v>
       </c>
       <c r="AC4" t="n">
-        <v>669.9740926430804</v>
+        <v>851.5715270963784</v>
       </c>
       <c r="AD4" t="n">
-        <v>541322.8588261611</v>
+        <v>688049.1926549012</v>
       </c>
       <c r="AE4" t="n">
-        <v>740661.8169250158</v>
+        <v>941419.2599784972</v>
       </c>
       <c r="AF4" t="n">
         <v>5.388728603629669e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.12037037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>669974.0926430804</v>
+        <v>851571.5270963784</v>
       </c>
     </row>
     <row r="5">
@@ -3045,28 +3045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>496.665063999794</v>
+        <v>633.7043617846709</v>
       </c>
       <c r="AB5" t="n">
-        <v>679.5590518807196</v>
+        <v>867.062264857119</v>
       </c>
       <c r="AC5" t="n">
-        <v>614.7028897363425</v>
+        <v>784.3110592286865</v>
       </c>
       <c r="AD5" t="n">
-        <v>496665.063999794</v>
+        <v>633704.361784671</v>
       </c>
       <c r="AE5" t="n">
-        <v>679559.0518807196</v>
+        <v>867062.2648571189</v>
       </c>
       <c r="AF5" t="n">
         <v>5.669027109435258e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.68518518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>614702.8897363425</v>
+        <v>784311.0592286865</v>
       </c>
     </row>
     <row r="6">
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>469.3407624217877</v>
+        <v>606.3458947878838</v>
       </c>
       <c r="AB6" t="n">
-        <v>642.1727369985831</v>
+        <v>829.6292033417346</v>
       </c>
       <c r="AC6" t="n">
-        <v>580.8846722745348</v>
+        <v>750.4505565666988</v>
       </c>
       <c r="AD6" t="n">
-        <v>469340.7624217877</v>
+        <v>606345.8947878839</v>
       </c>
       <c r="AE6" t="n">
-        <v>642172.7369985831</v>
+        <v>829629.2033417346</v>
       </c>
       <c r="AF6" t="n">
         <v>5.849926096733109e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.82870370370371</v>
       </c>
       <c r="AH6" t="n">
-        <v>580884.6722745347</v>
+        <v>750450.5565666987</v>
       </c>
     </row>
     <row r="7">
@@ -3257,28 +3257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>455.9737951477007</v>
+        <v>583.1572518545248</v>
       </c>
       <c r="AB7" t="n">
-        <v>623.8834626652007</v>
+        <v>797.9014790695871</v>
       </c>
       <c r="AC7" t="n">
-        <v>564.3409006143726</v>
+        <v>721.7508817689443</v>
       </c>
       <c r="AD7" t="n">
-        <v>455973.7951477008</v>
+        <v>583157.2518545248</v>
       </c>
       <c r="AE7" t="n">
-        <v>623883.4626652007</v>
+        <v>797901.4790695872</v>
       </c>
       <c r="AF7" t="n">
         <v>5.969802187266318e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.29629629629629</v>
       </c>
       <c r="AH7" t="n">
-        <v>564340.9006143726</v>
+        <v>721750.8817689443</v>
       </c>
     </row>
     <row r="8">
@@ -3363,28 +3363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>453.82273272488</v>
+        <v>581.006189431704</v>
       </c>
       <c r="AB8" t="n">
-        <v>620.9402841601209</v>
+        <v>794.9583005645072</v>
       </c>
       <c r="AC8" t="n">
-        <v>561.6786149350405</v>
+        <v>719.0885960896122</v>
       </c>
       <c r="AD8" t="n">
-        <v>453822.73272488</v>
+        <v>581006.189431704</v>
       </c>
       <c r="AE8" t="n">
-        <v>620940.2841601209</v>
+        <v>794958.3005645073</v>
       </c>
       <c r="AF8" t="n">
         <v>5.999364390587855e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.15740740740741</v>
       </c>
       <c r="AH8" t="n">
-        <v>561678.6149350405</v>
+        <v>719088.5960896122</v>
       </c>
     </row>
   </sheetData>
@@ -3660,28 +3660,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>769.7806637610623</v>
+        <v>963.3916467632247</v>
       </c>
       <c r="AB2" t="n">
-        <v>1053.247864483972</v>
+        <v>1318.15495294127</v>
       </c>
       <c r="AC2" t="n">
-        <v>952.727366540283</v>
+        <v>1192.352094274651</v>
       </c>
       <c r="AD2" t="n">
-        <v>769780.6637610623</v>
+        <v>963391.6467632247</v>
       </c>
       <c r="AE2" t="n">
-        <v>1053247.864483972</v>
+        <v>1318154.95294127</v>
       </c>
       <c r="AF2" t="n">
         <v>4.345261659222728e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.52546296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>952727.366540283</v>
+        <v>1192352.094274651</v>
       </c>
     </row>
     <row r="3">
@@ -3766,28 +3766,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>538.7073491535322</v>
+        <v>683.8482665974495</v>
       </c>
       <c r="AB3" t="n">
-        <v>737.0831612027816</v>
+        <v>935.6713676149142</v>
       </c>
       <c r="AC3" t="n">
-        <v>666.7369788003016</v>
+        <v>846.3722055127582</v>
       </c>
       <c r="AD3" t="n">
-        <v>538707.3491535322</v>
+        <v>683848.2665974495</v>
       </c>
       <c r="AE3" t="n">
-        <v>737083.1612027816</v>
+        <v>935671.3676149142</v>
       </c>
       <c r="AF3" t="n">
         <v>5.697434085396425e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.13888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>666736.9788003016</v>
+        <v>846372.2055127582</v>
       </c>
     </row>
     <row r="4">
@@ -3872,28 +3872,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>471.0395414887957</v>
+        <v>606.5672295903094</v>
       </c>
       <c r="AB4" t="n">
-        <v>644.4970814629065</v>
+        <v>829.9320433830155</v>
       </c>
       <c r="AC4" t="n">
-        <v>582.987184565421</v>
+        <v>750.7244939794783</v>
       </c>
       <c r="AD4" t="n">
-        <v>471039.5414887957</v>
+        <v>606567.2295903093</v>
       </c>
       <c r="AE4" t="n">
-        <v>644497.0814629066</v>
+        <v>829932.0433830156</v>
       </c>
       <c r="AF4" t="n">
         <v>6.214236078193856e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.63888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>582987.184565421</v>
+        <v>750724.4939794784</v>
       </c>
     </row>
     <row r="5">
@@ -3978,28 +3978,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>439.7409245904967</v>
+        <v>575.2344472732295</v>
       </c>
       <c r="AB5" t="n">
-        <v>601.6729330251281</v>
+        <v>787.0611483119893</v>
       </c>
       <c r="AC5" t="n">
-        <v>544.2501127504744</v>
+        <v>711.9451369643518</v>
       </c>
       <c r="AD5" t="n">
-        <v>439740.9245904967</v>
+        <v>575234.4472732295</v>
       </c>
       <c r="AE5" t="n">
-        <v>601672.9330251281</v>
+        <v>787061.1483119893</v>
       </c>
       <c r="AF5" t="n">
         <v>6.478794778497564e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.50462962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>544250.1127504744</v>
+        <v>711945.1369643519</v>
       </c>
     </row>
     <row r="6">
@@ -4084,28 +4084,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>433.2192658935297</v>
+        <v>558.9990850372308</v>
       </c>
       <c r="AB6" t="n">
-        <v>592.7497118806623</v>
+        <v>764.8472094470646</v>
       </c>
       <c r="AC6" t="n">
-        <v>536.1785113082166</v>
+        <v>691.8512652472367</v>
       </c>
       <c r="AD6" t="n">
-        <v>433219.2658935298</v>
+        <v>558999.0850372307</v>
       </c>
       <c r="AE6" t="n">
-        <v>592749.7118806622</v>
+        <v>764847.2094470647</v>
       </c>
       <c r="AF6" t="n">
         <v>6.557880469614714e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.19212962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>536178.5113082166</v>
+        <v>691851.2652472367</v>
       </c>
     </row>
     <row r="7">
@@ -4190,28 +4190,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>434.0936036275148</v>
+        <v>559.8734227712159</v>
       </c>
       <c r="AB7" t="n">
-        <v>593.9460193413589</v>
+        <v>766.0435169077616</v>
       </c>
       <c r="AC7" t="n">
-        <v>537.2606448638927</v>
+        <v>692.9333988029125</v>
       </c>
       <c r="AD7" t="n">
-        <v>434093.6036275148</v>
+        <v>559873.4227712159</v>
       </c>
       <c r="AE7" t="n">
-        <v>593946.0193413589</v>
+        <v>766043.5169077616</v>
       </c>
       <c r="AF7" t="n">
         <v>6.556099928726523e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.19212962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>537260.6448638927</v>
+        <v>692933.3988029126</v>
       </c>
     </row>
   </sheetData>
@@ -4487,28 +4487,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>435.7259026159047</v>
+        <v>575.9566434853173</v>
       </c>
       <c r="AB2" t="n">
-        <v>596.1794028292231</v>
+        <v>788.049289030416</v>
       </c>
       <c r="AC2" t="n">
-        <v>539.2808773662485</v>
+        <v>712.8389709194761</v>
       </c>
       <c r="AD2" t="n">
-        <v>435725.9026159047</v>
+        <v>575956.6434853172</v>
       </c>
       <c r="AE2" t="n">
-        <v>596179.4028292231</v>
+        <v>788049.2890304161</v>
       </c>
       <c r="AF2" t="n">
         <v>8.193866146108977e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.25925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>539280.8773662485</v>
+        <v>712838.9709194761</v>
       </c>
     </row>
     <row r="3">
@@ -4593,28 +4593,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>392.9797386055085</v>
+        <v>523.8549977351946</v>
       </c>
       <c r="AB3" t="n">
-        <v>537.692215402538</v>
+        <v>716.7615187527122</v>
       </c>
       <c r="AC3" t="n">
-        <v>486.3756250202829</v>
+        <v>648.3548053840623</v>
       </c>
       <c r="AD3" t="n">
-        <v>392979.7386055085</v>
+        <v>523854.9977351946</v>
       </c>
       <c r="AE3" t="n">
-        <v>537692.215402538</v>
+        <v>716761.5187527122</v>
       </c>
       <c r="AF3" t="n">
         <v>8.807722663576042e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.21064814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>486375.6250202829</v>
+        <v>648354.8053840622</v>
       </c>
     </row>
   </sheetData>
@@ -4890,28 +4890,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>535.708382272593</v>
+        <v>696.7764238114679</v>
       </c>
       <c r="AB2" t="n">
-        <v>732.9798424111993</v>
+        <v>953.3602426651772</v>
       </c>
       <c r="AC2" t="n">
-        <v>663.0252749951437</v>
+        <v>862.3728791547164</v>
       </c>
       <c r="AD2" t="n">
-        <v>535708.382272593</v>
+        <v>696776.4238114679</v>
       </c>
       <c r="AE2" t="n">
-        <v>732979.8424111994</v>
+        <v>953360.2426651772</v>
       </c>
       <c r="AF2" t="n">
         <v>6.406094035620465e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.40740740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>663025.2749951438</v>
+        <v>862372.8791547164</v>
       </c>
     </row>
     <row r="3">
@@ -4996,28 +4996,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>417.8757386503292</v>
+        <v>550.5302352225484</v>
       </c>
       <c r="AB3" t="n">
-        <v>571.7560209978672</v>
+        <v>753.2597555113312</v>
       </c>
       <c r="AC3" t="n">
-        <v>517.1884288184453</v>
+        <v>681.3697016520358</v>
       </c>
       <c r="AD3" t="n">
-        <v>417875.7386503292</v>
+        <v>550530.2352225484</v>
       </c>
       <c r="AE3" t="n">
-        <v>571756.0209978671</v>
+        <v>753259.7555113311</v>
       </c>
       <c r="AF3" t="n">
         <v>7.66747651371327e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.07175925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>517188.4288184453</v>
+        <v>681369.7016520358</v>
       </c>
     </row>
     <row r="4">
@@ -5102,28 +5102,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>401.3215292487745</v>
+        <v>534.0433456286981</v>
       </c>
       <c r="AB4" t="n">
-        <v>549.1058213744845</v>
+        <v>730.7016658187902</v>
       </c>
       <c r="AC4" t="n">
-        <v>496.6999324573636</v>
+        <v>660.964524379273</v>
       </c>
       <c r="AD4" t="n">
-        <v>401321.5292487745</v>
+        <v>534043.3456286981</v>
       </c>
       <c r="AE4" t="n">
-        <v>549105.8213744846</v>
+        <v>730701.6658187902</v>
       </c>
       <c r="AF4" t="n">
         <v>7.806474298516612e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.58564814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>496699.9324573636</v>
+        <v>660964.5243792731</v>
       </c>
     </row>
   </sheetData>
@@ -5399,28 +5399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>389.6733679547993</v>
+        <v>519.1234528235755</v>
       </c>
       <c r="AB2" t="n">
-        <v>533.1682932114593</v>
+        <v>710.2876102636054</v>
       </c>
       <c r="AC2" t="n">
-        <v>482.2834596137562</v>
+        <v>642.4987576349682</v>
       </c>
       <c r="AD2" t="n">
-        <v>389673.3679547993</v>
+        <v>519123.4528235754</v>
       </c>
       <c r="AE2" t="n">
-        <v>533168.2932114593</v>
+        <v>710287.6102636054</v>
       </c>
       <c r="AF2" t="n">
         <v>9.707798091065153e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.27546296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>482283.4596137562</v>
+        <v>642498.7576349683</v>
       </c>
     </row>
     <row r="3">
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>390.7374915009925</v>
+        <v>520.1875763697686</v>
       </c>
       <c r="AB3" t="n">
-        <v>534.6242739931783</v>
+        <v>711.7435910453245</v>
       </c>
       <c r="AC3" t="n">
-        <v>483.6004836331499</v>
+        <v>643.815781654362</v>
       </c>
       <c r="AD3" t="n">
-        <v>390737.4915009925</v>
+        <v>520187.5763697686</v>
       </c>
       <c r="AE3" t="n">
-        <v>534624.2739931784</v>
+        <v>711743.5910453245</v>
       </c>
       <c r="AF3" t="n">
         <v>9.709221347963047e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.27546296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>483600.4836331499</v>
+        <v>643815.781654362</v>
       </c>
     </row>
   </sheetData>
@@ -5802,28 +5802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>811.5721866034017</v>
+        <v>1015.425523859983</v>
       </c>
       <c r="AB2" t="n">
-        <v>1110.428869748726</v>
+        <v>1389.349999157699</v>
       </c>
       <c r="AC2" t="n">
-        <v>1004.451096916614</v>
+        <v>1256.752385203058</v>
       </c>
       <c r="AD2" t="n">
-        <v>811572.1866034018</v>
+        <v>1015425.523859983</v>
       </c>
       <c r="AE2" t="n">
-        <v>1110428.869748726</v>
+        <v>1389349.999157699</v>
       </c>
       <c r="AF2" t="n">
         <v>4.106211984095871e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.81018518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>1004451.096916614</v>
+        <v>1256752.385203058</v>
       </c>
     </row>
     <row r="3">
@@ -5908,28 +5908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>555.1731617234137</v>
+        <v>710.4818554858612</v>
       </c>
       <c r="AB3" t="n">
-        <v>759.612412381276</v>
+        <v>972.1126189230541</v>
       </c>
       <c r="AC3" t="n">
-        <v>687.116069866323</v>
+        <v>879.3355549416668</v>
       </c>
       <c r="AD3" t="n">
-        <v>555173.1617234137</v>
+        <v>710481.8554858612</v>
       </c>
       <c r="AE3" t="n">
-        <v>759612.412381276</v>
+        <v>972112.6189230541</v>
       </c>
       <c r="AF3" t="n">
         <v>5.449031192830492e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.75231481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>687116.0698663229</v>
+        <v>879335.5549416668</v>
       </c>
     </row>
     <row r="4">
@@ -6014,28 +6014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>483.5009469424984</v>
+        <v>629.0665465873384</v>
       </c>
       <c r="AB4" t="n">
-        <v>661.5473261630714</v>
+        <v>860.7166014981624</v>
       </c>
       <c r="AC4" t="n">
-        <v>598.4101778415707</v>
+        <v>778.5710170745144</v>
       </c>
       <c r="AD4" t="n">
-        <v>483500.9469424984</v>
+        <v>629066.5465873384</v>
       </c>
       <c r="AE4" t="n">
-        <v>661547.3261630713</v>
+        <v>860716.6014981624</v>
       </c>
       <c r="AF4" t="n">
         <v>5.986071999946808e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.99768518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>598410.1778415707</v>
+        <v>778571.0170745144</v>
       </c>
     </row>
     <row r="5">
@@ -6120,28 +6120,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>450.162123973745</v>
+        <v>586.0529603385389</v>
       </c>
       <c r="AB5" t="n">
-        <v>615.9316777721576</v>
+        <v>801.8635151670574</v>
       </c>
       <c r="AC5" t="n">
-        <v>557.1480229111213</v>
+        <v>725.3347867020245</v>
       </c>
       <c r="AD5" t="n">
-        <v>450162.123973745</v>
+        <v>586052.960338539</v>
       </c>
       <c r="AE5" t="n">
-        <v>615931.6777721576</v>
+        <v>801863.5151670574</v>
       </c>
       <c r="AF5" t="n">
         <v>6.270302548442178e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.72453703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>557148.0229111213</v>
+        <v>725334.7867020245</v>
       </c>
     </row>
     <row r="6">
@@ -6226,28 +6226,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>439.7007556641839</v>
+        <v>565.8495089412276</v>
       </c>
       <c r="AB6" t="n">
-        <v>601.617972128019</v>
+        <v>774.2202616518859</v>
       </c>
       <c r="AC6" t="n">
-        <v>544.2003972442471</v>
+        <v>700.3297665047911</v>
       </c>
       <c r="AD6" t="n">
-        <v>439700.7556641839</v>
+        <v>565849.5089412276</v>
       </c>
       <c r="AE6" t="n">
-        <v>601617.972128019</v>
+        <v>774220.2616518859</v>
       </c>
       <c r="AF6" t="n">
         <v>6.384544984898035e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.25</v>
       </c>
       <c r="AH6" t="n">
-        <v>544200.3972442471</v>
+        <v>700329.7665047911</v>
       </c>
     </row>
     <row r="7">
@@ -6332,28 +6332,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>438.4100028519568</v>
+        <v>564.5587561290004</v>
       </c>
       <c r="AB7" t="n">
-        <v>599.8519071863348</v>
+        <v>772.4541967102017</v>
       </c>
       <c r="AC7" t="n">
-        <v>542.6028830619096</v>
+        <v>698.7322523224535</v>
       </c>
       <c r="AD7" t="n">
-        <v>438410.0028519568</v>
+        <v>564558.7561290003</v>
       </c>
       <c r="AE7" t="n">
-        <v>599851.9071863347</v>
+        <v>772454.1967102017</v>
       </c>
       <c r="AF7" t="n">
         <v>6.410318310232816e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.14583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>542602.8830619096</v>
+        <v>698732.2523224535</v>
       </c>
     </row>
   </sheetData>
@@ -6629,28 +6629,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>392.2246974279877</v>
+        <v>529.96598764843</v>
       </c>
       <c r="AB2" t="n">
-        <v>536.6591347533881</v>
+        <v>725.1228447498485</v>
       </c>
       <c r="AC2" t="n">
-        <v>485.4411401383502</v>
+        <v>655.9181381632267</v>
       </c>
       <c r="AD2" t="n">
-        <v>392224.6974279878</v>
+        <v>529965.9876484299</v>
       </c>
       <c r="AE2" t="n">
-        <v>536659.1347533881</v>
+        <v>725122.8447498485</v>
       </c>
       <c r="AF2" t="n">
         <v>1.029742020001062e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.17824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>485441.1401383503</v>
+        <v>655918.1381632267</v>
       </c>
     </row>
   </sheetData>
@@ -6926,28 +6926,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>640.7463512571638</v>
+        <v>822.8584523078702</v>
       </c>
       <c r="AB2" t="n">
-        <v>876.6974255240332</v>
+        <v>1125.871236400481</v>
       </c>
       <c r="AC2" t="n">
-        <v>793.0266536845835</v>
+        <v>1018.419665768623</v>
       </c>
       <c r="AD2" t="n">
-        <v>640746.3512571638</v>
+        <v>822858.4523078701</v>
       </c>
       <c r="AE2" t="n">
-        <v>876697.4255240331</v>
+        <v>1125871.236400481</v>
       </c>
       <c r="AF2" t="n">
         <v>5.229872474015886e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.70601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>793026.6536845835</v>
+        <v>1018419.665768623</v>
       </c>
     </row>
     <row r="3">
@@ -7032,28 +7032,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>473.0252723087769</v>
+        <v>616.8177636438919</v>
       </c>
       <c r="AB3" t="n">
-        <v>647.2140459750658</v>
+        <v>843.9572762967734</v>
       </c>
       <c r="AC3" t="n">
-        <v>585.4448457978235</v>
+        <v>763.4111783484854</v>
       </c>
       <c r="AD3" t="n">
-        <v>473025.272308777</v>
+        <v>616817.7636438919</v>
       </c>
       <c r="AE3" t="n">
-        <v>647214.0459750658</v>
+        <v>843957.2762967735</v>
       </c>
       <c r="AF3" t="n">
         <v>6.545932007273562e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.53009259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>585444.8457978235</v>
+        <v>763411.1783484854</v>
       </c>
     </row>
     <row r="4">
@@ -7138,28 +7138,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>422.4773516434601</v>
+        <v>556.6813991949819</v>
       </c>
       <c r="AB4" t="n">
-        <v>578.0521509039062</v>
+        <v>761.6760494286169</v>
       </c>
       <c r="AC4" t="n">
-        <v>522.8836649229258</v>
+        <v>688.9827562901983</v>
       </c>
       <c r="AD4" t="n">
-        <v>422477.35164346</v>
+        <v>556681.3991949819</v>
       </c>
       <c r="AE4" t="n">
-        <v>578052.1509039062</v>
+        <v>761676.0494286169</v>
       </c>
       <c r="AF4" t="n">
         <v>7.020758929717761e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.59722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>522883.6649229259</v>
+        <v>688982.7562901983</v>
       </c>
     </row>
     <row r="5">
@@ -7244,28 +7244,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>417.7914242277492</v>
+        <v>542.3738736067545</v>
       </c>
       <c r="AB5" t="n">
-        <v>571.6406582852032</v>
+        <v>742.0998617153231</v>
       </c>
       <c r="AC5" t="n">
-        <v>517.0840761611656</v>
+        <v>671.2748924569094</v>
       </c>
       <c r="AD5" t="n">
-        <v>417791.4242277492</v>
+        <v>542373.8736067545</v>
       </c>
       <c r="AE5" t="n">
-        <v>571640.6582852033</v>
+        <v>742099.8617153231</v>
       </c>
       <c r="AF5" t="n">
         <v>7.106915088938014e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.27314814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>517084.0761611656</v>
+        <v>671274.8924569094</v>
       </c>
     </row>
   </sheetData>
@@ -7541,28 +7541,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>727.6624297242623</v>
+        <v>910.965828151727</v>
       </c>
       <c r="AB2" t="n">
-        <v>995.6198385494762</v>
+        <v>1246.423635053136</v>
       </c>
       <c r="AC2" t="n">
-        <v>900.5992785195332</v>
+        <v>1127.466712690222</v>
       </c>
       <c r="AD2" t="n">
-        <v>727662.4297242623</v>
+        <v>910965.828151727</v>
       </c>
       <c r="AE2" t="n">
-        <v>995619.8385494762</v>
+        <v>1246423.635053136</v>
       </c>
       <c r="AF2" t="n">
         <v>4.618858808803262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.15972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>900599.2785195332</v>
+        <v>1127466.712690223</v>
       </c>
     </row>
     <row r="3">
@@ -7647,28 +7647,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>513.4580617288484</v>
+        <v>658.2244182302977</v>
       </c>
       <c r="AB3" t="n">
-        <v>702.5359722283848</v>
+        <v>900.6116878345697</v>
       </c>
       <c r="AC3" t="n">
-        <v>635.4869250543368</v>
+        <v>814.6585723640804</v>
       </c>
       <c r="AD3" t="n">
-        <v>513458.0617288484</v>
+        <v>658224.4182302977</v>
       </c>
       <c r="AE3" t="n">
-        <v>702535.9722283848</v>
+        <v>900611.6878345697</v>
       </c>
       <c r="AF3" t="n">
         <v>5.95369666890945e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.60648148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>635486.9250543368</v>
+        <v>814658.5723640805</v>
       </c>
     </row>
     <row r="4">
@@ -7753,28 +7753,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>457.8422498733967</v>
+        <v>592.8560307149307</v>
       </c>
       <c r="AB4" t="n">
-        <v>626.4399648513028</v>
+        <v>811.1717761863196</v>
       </c>
       <c r="AC4" t="n">
-        <v>566.6534138199063</v>
+        <v>733.7546803538346</v>
       </c>
       <c r="AD4" t="n">
-        <v>457842.2498733967</v>
+        <v>592856.0307149307</v>
       </c>
       <c r="AE4" t="n">
-        <v>626439.9648513028</v>
+        <v>811171.7761863195</v>
       </c>
       <c r="AF4" t="n">
         <v>6.462351369737137e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.2800925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>566653.4138199063</v>
+        <v>733754.6803538346</v>
       </c>
     </row>
     <row r="5">
@@ -7859,28 +7859,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>428.9540087825783</v>
+        <v>554.3508646094632</v>
       </c>
       <c r="AB5" t="n">
-        <v>586.9137989315949</v>
+        <v>758.4873091927807</v>
       </c>
       <c r="AC5" t="n">
-        <v>530.8995697002532</v>
+        <v>686.0983449470453</v>
       </c>
       <c r="AD5" t="n">
-        <v>428954.0087825783</v>
+        <v>554350.8646094633</v>
       </c>
       <c r="AE5" t="n">
-        <v>586913.7989315949</v>
+        <v>758487.3091927806</v>
       </c>
       <c r="AF5" t="n">
         <v>6.710587047087175e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.26157407407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>530899.5697002532</v>
+        <v>686098.3449470453</v>
       </c>
     </row>
     <row r="6">
@@ -7965,28 +7965,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>428.2385783516039</v>
+        <v>553.6354341784888</v>
       </c>
       <c r="AB6" t="n">
-        <v>585.9349154533728</v>
+        <v>757.5084257145583</v>
       </c>
       <c r="AC6" t="n">
-        <v>530.0141094873209</v>
+        <v>685.212884734113</v>
       </c>
       <c r="AD6" t="n">
-        <v>428238.5783516039</v>
+        <v>553635.4341784888</v>
       </c>
       <c r="AE6" t="n">
-        <v>585934.9154533728</v>
+        <v>757508.4257145582</v>
       </c>
       <c r="AF6" t="n">
         <v>6.726729980706258e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.20370370370371</v>
       </c>
       <c r="AH6" t="n">
-        <v>530014.1094873209</v>
+        <v>685212.884734113</v>
       </c>
     </row>
   </sheetData>
@@ -8262,28 +8262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>914.0688202216779</v>
+        <v>1138.545693849854</v>
       </c>
       <c r="AB2" t="n">
-        <v>1250.669285697591</v>
+        <v>1557.808447416392</v>
       </c>
       <c r="AC2" t="n">
-        <v>1131.307164395979</v>
+        <v>1409.133395592859</v>
       </c>
       <c r="AD2" t="n">
-        <v>914068.8202216779</v>
+        <v>1138545.693849854</v>
       </c>
       <c r="AE2" t="n">
-        <v>1250669.285697591</v>
+        <v>1557808.447416392</v>
       </c>
       <c r="AF2" t="n">
         <v>3.665096851982122e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.71527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1131307.16439598</v>
+        <v>1409133.395592859</v>
       </c>
     </row>
     <row r="3">
@@ -8368,28 +8368,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>595.7196622384329</v>
+        <v>761.6195260059816</v>
       </c>
       <c r="AB3" t="n">
-        <v>815.0899231712818</v>
+        <v>1042.081435763483</v>
       </c>
       <c r="AC3" t="n">
-        <v>737.2988848897061</v>
+        <v>942.6266461046965</v>
       </c>
       <c r="AD3" t="n">
-        <v>595719.6622384329</v>
+        <v>761619.5260059816</v>
       </c>
       <c r="AE3" t="n">
-        <v>815089.9231712818</v>
+        <v>1042081.435763483</v>
       </c>
       <c r="AF3" t="n">
         <v>5.037743043997031e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.80555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>737298.884889706</v>
+        <v>942626.6461046966</v>
       </c>
     </row>
     <row r="4">
@@ -8474,28 +8474,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>518.97645244611</v>
+        <v>665.3848116788971</v>
       </c>
       <c r="AB4" t="n">
-        <v>710.0864778619583</v>
+        <v>910.4088540452078</v>
       </c>
       <c r="AC4" t="n">
-        <v>642.3168210274434</v>
+        <v>823.5207107819842</v>
       </c>
       <c r="AD4" t="n">
-        <v>518976.45244611</v>
+        <v>665384.8116788971</v>
       </c>
       <c r="AE4" t="n">
-        <v>710086.4778619583</v>
+        <v>910408.8540452078</v>
       </c>
       <c r="AF4" t="n">
         <v>5.567281287512616e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.78472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>642316.8210274434</v>
+        <v>823520.7107819843</v>
       </c>
     </row>
     <row r="5">
@@ -8580,28 +8580,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>485.267211755272</v>
+        <v>621.8454162035835</v>
       </c>
       <c r="AB5" t="n">
-        <v>663.964007602012</v>
+        <v>850.8363323333203</v>
       </c>
       <c r="AC5" t="n">
-        <v>600.5962145958127</v>
+        <v>769.6337069317199</v>
       </c>
       <c r="AD5" t="n">
-        <v>485267.211755272</v>
+        <v>621845.4162035835</v>
       </c>
       <c r="AE5" t="n">
-        <v>663964.007602012</v>
+        <v>850836.3323333203</v>
       </c>
       <c r="AF5" t="n">
         <v>5.84776350486231e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.39583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>600596.2145958127</v>
+        <v>769633.7069317199</v>
       </c>
     </row>
     <row r="6">
@@ -8686,28 +8686,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>458.3200495023313</v>
+        <v>594.9655737583472</v>
       </c>
       <c r="AB6" t="n">
-        <v>627.0937113826431</v>
+        <v>814.0581460447926</v>
       </c>
       <c r="AC6" t="n">
-        <v>567.2447676998346</v>
+        <v>736.3655791240607</v>
       </c>
       <c r="AD6" t="n">
-        <v>458320.0495023313</v>
+        <v>594965.5737583472</v>
       </c>
       <c r="AE6" t="n">
-        <v>627093.7113826431</v>
+        <v>814058.1460447926</v>
       </c>
       <c r="AF6" t="n">
         <v>6.033413383177186e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.5625</v>
       </c>
       <c r="AH6" t="n">
-        <v>567244.7676998345</v>
+        <v>736365.5791240607</v>
       </c>
     </row>
     <row r="7">
@@ -8792,28 +8792,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>449.6753416127418</v>
+        <v>576.524876503063</v>
       </c>
       <c r="AB7" t="n">
-        <v>615.2656406705109</v>
+        <v>788.8267705139671</v>
       </c>
       <c r="AC7" t="n">
-        <v>556.5455514556668</v>
+        <v>713.5422506614392</v>
       </c>
       <c r="AD7" t="n">
-        <v>449675.3416127418</v>
+        <v>576524.8765030629</v>
       </c>
       <c r="AE7" t="n">
-        <v>615265.6406705109</v>
+        <v>788826.770513967</v>
       </c>
       <c r="AF7" t="n">
         <v>6.113155612788946e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.21527777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>556545.5514556668</v>
+        <v>713542.2506614391</v>
       </c>
     </row>
     <row r="8">
@@ -8898,28 +8898,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>449.9200830079533</v>
+        <v>576.7696178982744</v>
       </c>
       <c r="AB8" t="n">
-        <v>615.6005066446676</v>
+        <v>789.1616364881238</v>
       </c>
       <c r="AC8" t="n">
-        <v>556.8484582912373</v>
+        <v>713.8451574970097</v>
       </c>
       <c r="AD8" t="n">
-        <v>449920.0830079534</v>
+        <v>576769.6178982744</v>
       </c>
       <c r="AE8" t="n">
-        <v>615600.5066446676</v>
+        <v>789161.6364881238</v>
       </c>
       <c r="AF8" t="n">
         <v>6.110802109484431e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.22685185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>556848.4582912374</v>
+        <v>713845.1574970097</v>
       </c>
     </row>
   </sheetData>
@@ -9195,28 +9195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>569.6744586105847</v>
+        <v>731.4085872006026</v>
       </c>
       <c r="AB2" t="n">
-        <v>779.4537265343707</v>
+        <v>1000.745496477409</v>
       </c>
       <c r="AC2" t="n">
-        <v>705.0637568441055</v>
+        <v>905.2357508487298</v>
       </c>
       <c r="AD2" t="n">
-        <v>569674.4586105847</v>
+        <v>731408.5872006026</v>
       </c>
       <c r="AE2" t="n">
-        <v>779453.7265343707</v>
+        <v>1000745.496477409</v>
       </c>
       <c r="AF2" t="n">
         <v>5.969806485110415e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.46064814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>705063.7568441054</v>
+        <v>905235.7508487299</v>
       </c>
     </row>
     <row r="3">
@@ -9301,28 +9301,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>433.155081178867</v>
+        <v>566.431469027752</v>
       </c>
       <c r="AB3" t="n">
-        <v>592.6618915224308</v>
+        <v>775.0165251165358</v>
       </c>
       <c r="AC3" t="n">
-        <v>536.0990724017182</v>
+        <v>701.0500357019374</v>
       </c>
       <c r="AD3" t="n">
-        <v>433155.081178867</v>
+        <v>566431.4690277519</v>
       </c>
       <c r="AE3" t="n">
-        <v>592661.8915224308</v>
+        <v>775016.5251165358</v>
       </c>
       <c r="AF3" t="n">
         <v>7.255756994522318e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.53472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>536099.0724017182</v>
+        <v>701050.0357019374</v>
       </c>
     </row>
     <row r="4">
@@ -9407,28 +9407,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>407.0248972842449</v>
+        <v>540.1656344878637</v>
       </c>
       <c r="AB4" t="n">
-        <v>556.9094211354546</v>
+        <v>739.0784515322225</v>
       </c>
       <c r="AC4" t="n">
-        <v>503.7587676095677</v>
+        <v>668.541841421108</v>
       </c>
       <c r="AD4" t="n">
-        <v>407024.8972842449</v>
+        <v>540165.6344878637</v>
       </c>
       <c r="AE4" t="n">
-        <v>556909.4211354547</v>
+        <v>739078.4515322226</v>
       </c>
       <c r="AF4" t="n">
         <v>7.543288003605694e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.48148148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>503758.7676095677</v>
+        <v>668541.841421108</v>
       </c>
     </row>
   </sheetData>
@@ -9704,28 +9704,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>469.2843832110792</v>
+        <v>610.2310639330768</v>
       </c>
       <c r="AB2" t="n">
-        <v>642.0955964752163</v>
+        <v>834.9450631677533</v>
       </c>
       <c r="AC2" t="n">
-        <v>580.8148939344505</v>
+        <v>755.2590781917785</v>
       </c>
       <c r="AD2" t="n">
-        <v>469284.3832110792</v>
+        <v>610231.0639330768</v>
       </c>
       <c r="AE2" t="n">
-        <v>642095.5964752163</v>
+        <v>834945.0631677534</v>
       </c>
       <c r="AF2" t="n">
         <v>7.486908088590805e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.33564814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>580814.8939344506</v>
+        <v>755259.0781917785</v>
       </c>
     </row>
     <row r="3">
@@ -9810,28 +9810,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>389.5534377656118</v>
+        <v>521.1323395078864</v>
       </c>
       <c r="AB3" t="n">
-        <v>533.0041994356665</v>
+        <v>713.0362576509053</v>
       </c>
       <c r="AC3" t="n">
-        <v>482.1350267176178</v>
+        <v>644.985077973375</v>
       </c>
       <c r="AD3" t="n">
-        <v>389553.4377656118</v>
+        <v>521132.3395078864</v>
       </c>
       <c r="AE3" t="n">
-        <v>533004.1994356664</v>
+        <v>713036.2576509053</v>
       </c>
       <c r="AF3" t="n">
         <v>8.428683452726667e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.94444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>482135.0267176179</v>
+        <v>644985.0779733751</v>
       </c>
     </row>
     <row r="4">
@@ -9916,28 +9916,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>390.4420579125405</v>
+        <v>522.020959654815</v>
       </c>
       <c r="AB4" t="n">
-        <v>534.2200487238482</v>
+        <v>714.2521069390872</v>
       </c>
       <c r="AC4" t="n">
-        <v>483.2348370561908</v>
+        <v>646.084888311948</v>
       </c>
       <c r="AD4" t="n">
-        <v>390442.0579125404</v>
+        <v>522020.959654815</v>
       </c>
       <c r="AE4" t="n">
-        <v>534220.0487238482</v>
+        <v>714252.1069390872</v>
       </c>
       <c r="AF4" t="n">
         <v>8.42946842906685e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.94444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>483234.8370561908</v>
+        <v>646084.888311948</v>
       </c>
     </row>
   </sheetData>
@@ -17546,28 +17546,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>403.2565024762867</v>
+        <v>533.4727265157145</v>
       </c>
       <c r="AB2" t="n">
-        <v>551.7533371093608</v>
+        <v>729.9209195744675</v>
       </c>
       <c r="AC2" t="n">
-        <v>499.0947730063149</v>
+        <v>660.2582914607244</v>
       </c>
       <c r="AD2" t="n">
-        <v>403256.5024762867</v>
+        <v>533472.7265157145</v>
       </c>
       <c r="AE2" t="n">
-        <v>551753.3371093608</v>
+        <v>729920.9195744675</v>
       </c>
       <c r="AF2" t="n">
         <v>9.01419173805652e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.29861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>499094.7730063149</v>
+        <v>660258.2914607244</v>
       </c>
     </row>
     <row r="3">
@@ -17652,28 +17652,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>387.6382907848363</v>
+        <v>517.9218346319685</v>
       </c>
       <c r="AB3" t="n">
-        <v>530.3838108462475</v>
+        <v>708.6435032421956</v>
       </c>
       <c r="AC3" t="n">
-        <v>479.7647243374346</v>
+        <v>641.0115618801632</v>
       </c>
       <c r="AD3" t="n">
-        <v>387638.2907848363</v>
+        <v>517921.8346319685</v>
       </c>
       <c r="AE3" t="n">
-        <v>530383.8108462475</v>
+        <v>708643.5032421956</v>
       </c>
       <c r="AF3" t="n">
         <v>9.214085919284784e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.68518518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>479764.7243374346</v>
+        <v>641011.5618801631</v>
       </c>
     </row>
   </sheetData>
@@ -17949,28 +17949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>395.0772734650519</v>
+        <v>540.9265552812943</v>
       </c>
       <c r="AB2" t="n">
-        <v>540.5621551340723</v>
+        <v>740.1195769312503</v>
       </c>
       <c r="AC2" t="n">
-        <v>488.9716617318255</v>
+        <v>669.4836032732813</v>
       </c>
       <c r="AD2" t="n">
-        <v>395077.2734650519</v>
+        <v>540926.5552812943</v>
       </c>
       <c r="AE2" t="n">
-        <v>540562.1551340723</v>
+        <v>740119.5769312503</v>
       </c>
       <c r="AF2" t="n">
         <v>1.092608726684455e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.87962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>488971.6617318254</v>
+        <v>669483.6032732814</v>
       </c>
     </row>
   </sheetData>
@@ -18246,28 +18246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>679.7795632846133</v>
+        <v>872.0857708726148</v>
       </c>
       <c r="AB2" t="n">
-        <v>930.10438824377</v>
+        <v>1193.226225416785</v>
       </c>
       <c r="AC2" t="n">
-        <v>841.3365308394914</v>
+        <v>1079.346389166532</v>
       </c>
       <c r="AD2" t="n">
-        <v>679779.5632846133</v>
+        <v>872085.7708726148</v>
       </c>
       <c r="AE2" t="n">
-        <v>930104.38824377</v>
+        <v>1193226.225416785</v>
       </c>
       <c r="AF2" t="n">
         <v>4.901566380768232e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.97916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>841336.5308394914</v>
+        <v>1079346.389166532</v>
       </c>
     </row>
     <row r="3">
@@ -18352,28 +18352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>498.0491832121137</v>
+        <v>642.2542258688864</v>
       </c>
       <c r="AB3" t="n">
-        <v>681.4528648500454</v>
+        <v>878.7605660905249</v>
       </c>
       <c r="AC3" t="n">
-        <v>616.415959853859</v>
+        <v>794.8928910110451</v>
       </c>
       <c r="AD3" t="n">
-        <v>498049.1832121137</v>
+        <v>642254.2258688863</v>
       </c>
       <c r="AE3" t="n">
-        <v>681452.8648500454</v>
+        <v>878760.5660905249</v>
       </c>
       <c r="AF3" t="n">
         <v>6.235396245677306e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.0625</v>
       </c>
       <c r="AH3" t="n">
-        <v>616415.959853859</v>
+        <v>794892.8910110451</v>
       </c>
     </row>
     <row r="4">
@@ -18458,28 +18458,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>435.6388555124223</v>
+        <v>570.2907827846823</v>
       </c>
       <c r="AB4" t="n">
-        <v>596.0603011419913</v>
+        <v>780.2970084596742</v>
       </c>
       <c r="AC4" t="n">
-        <v>539.1731425768858</v>
+        <v>705.8265571260119</v>
       </c>
       <c r="AD4" t="n">
-        <v>435638.8555124223</v>
+        <v>570290.7827846822</v>
       </c>
       <c r="AE4" t="n">
-        <v>596060.3011419913</v>
+        <v>780297.0084596742</v>
       </c>
       <c r="AF4" t="n">
         <v>6.732724685563571e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.9212962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>539173.1425768858</v>
+        <v>705826.5571260119</v>
       </c>
     </row>
     <row r="5">
@@ -18564,28 +18564,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>423.4449678443144</v>
+        <v>548.4433055354336</v>
       </c>
       <c r="AB5" t="n">
-        <v>579.3760860781292</v>
+        <v>750.4043262445806</v>
       </c>
       <c r="AC5" t="n">
-        <v>524.0812455822756</v>
+        <v>678.7867905468837</v>
       </c>
       <c r="AD5" t="n">
-        <v>423444.9678443144</v>
+        <v>548443.3055354336</v>
       </c>
       <c r="AE5" t="n">
-        <v>579376.0860781292</v>
+        <v>750404.3262445806</v>
       </c>
       <c r="AF5" t="n">
         <v>6.890880140313296e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.29629629629629</v>
       </c>
       <c r="AH5" t="n">
-        <v>524081.2455822757</v>
+        <v>678786.7905468837</v>
       </c>
     </row>
     <row r="6">
@@ -18670,28 +18670,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>422.9597456606002</v>
+        <v>547.9580833517192</v>
       </c>
       <c r="AB6" t="n">
-        <v>578.7121836798793</v>
+        <v>749.7404238463307</v>
       </c>
       <c r="AC6" t="n">
-        <v>523.480705097122</v>
+        <v>678.1862500617299</v>
       </c>
       <c r="AD6" t="n">
-        <v>422959.7456606001</v>
+        <v>547958.0833517192</v>
       </c>
       <c r="AE6" t="n">
-        <v>578712.1836798793</v>
+        <v>749740.4238463307</v>
       </c>
       <c r="AF6" t="n">
         <v>6.912959268154595e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.21527777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>523480.705097122</v>
+        <v>678186.2500617299</v>
       </c>
     </row>
   </sheetData>
@@ -18967,28 +18967,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>866.452429343143</v>
+        <v>1070.848014187597</v>
       </c>
       <c r="AB2" t="n">
-        <v>1185.518439010674</v>
+        <v>1465.181495491649</v>
       </c>
       <c r="AC2" t="n">
-        <v>1072.374223077073</v>
+        <v>1325.34662995707</v>
       </c>
       <c r="AD2" t="n">
-        <v>866452.429343143</v>
+        <v>1070848.014187597</v>
       </c>
       <c r="AE2" t="n">
-        <v>1185518.439010673</v>
+        <v>1465181.495491649</v>
       </c>
       <c r="AF2" t="n">
         <v>3.877920609473105e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.2337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1072374.223077073</v>
+        <v>1325346.62995707</v>
       </c>
     </row>
     <row r="3">
@@ -19073,28 +19073,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>579.857791633883</v>
+        <v>735.5375670947565</v>
       </c>
       <c r="AB3" t="n">
-        <v>793.3870120337933</v>
+        <v>1006.394948926327</v>
       </c>
       <c r="AC3" t="n">
-        <v>717.6672691309524</v>
+        <v>910.3460274849798</v>
       </c>
       <c r="AD3" t="n">
-        <v>579857.791633883</v>
+        <v>735537.5670947565</v>
       </c>
       <c r="AE3" t="n">
-        <v>793387.0120337934</v>
+        <v>1006394.948926327</v>
       </c>
       <c r="AF3" t="n">
         <v>5.239939939818933e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>717667.2691309524</v>
+        <v>910346.0274849798</v>
       </c>
     </row>
     <row r="4">
@@ -19179,28 +19179,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>506.6600023971332</v>
+        <v>652.5692836462659</v>
       </c>
       <c r="AB4" t="n">
-        <v>693.2345675415207</v>
+        <v>892.8740832097676</v>
       </c>
       <c r="AC4" t="n">
-        <v>627.0732333761836</v>
+        <v>807.6594338648731</v>
       </c>
       <c r="AD4" t="n">
-        <v>506660.0023971332</v>
+        <v>652569.283646266</v>
       </c>
       <c r="AE4" t="n">
-        <v>693234.5675415207</v>
+        <v>892874.0832097676</v>
       </c>
       <c r="AF4" t="n">
         <v>5.765023436070061e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.40277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>627073.2333761835</v>
+        <v>807659.4338648731</v>
       </c>
     </row>
     <row r="5">
@@ -19285,28 +19285,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>472.6576669329851</v>
+        <v>599.1967868525404</v>
       </c>
       <c r="AB5" t="n">
-        <v>646.7110720823027</v>
+        <v>819.8474784682153</v>
       </c>
       <c r="AC5" t="n">
-        <v>584.9898750274575</v>
+        <v>741.6023857863711</v>
       </c>
       <c r="AD5" t="n">
-        <v>472657.6669329851</v>
+        <v>599196.7868525404</v>
       </c>
       <c r="AE5" t="n">
-        <v>646711.0720823028</v>
+        <v>819847.4784682153</v>
       </c>
       <c r="AF5" t="n">
         <v>6.056359172739714e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.03703703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>584989.8750274575</v>
+        <v>741602.3857863711</v>
       </c>
     </row>
     <row r="6">
@@ -19391,28 +19391,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>446.9973909874953</v>
+        <v>573.50234548827</v>
       </c>
       <c r="AB6" t="n">
-        <v>611.6015504822051</v>
+        <v>784.6912102348699</v>
       </c>
       <c r="AC6" t="n">
-        <v>553.2311568923501</v>
+        <v>709.8013824510838</v>
       </c>
       <c r="AD6" t="n">
-        <v>446997.3909874953</v>
+        <v>573502.3454882699</v>
       </c>
       <c r="AE6" t="n">
-        <v>611601.5504822051</v>
+        <v>784691.21023487</v>
       </c>
       <c r="AF6" t="n">
         <v>6.226010240377844e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.30787037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>553231.1568923501</v>
+        <v>709801.3824510837</v>
       </c>
     </row>
     <row r="7">
@@ -19497,28 +19497,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>444.1825971221925</v>
+        <v>570.6875516229671</v>
       </c>
       <c r="AB7" t="n">
-        <v>607.7502253357568</v>
+        <v>780.8398850884214</v>
       </c>
       <c r="AC7" t="n">
-        <v>549.7473968125098</v>
+        <v>706.3176223712436</v>
       </c>
       <c r="AD7" t="n">
-        <v>444182.5971221926</v>
+        <v>570687.5516229671</v>
       </c>
       <c r="AE7" t="n">
-        <v>607750.2253357568</v>
+        <v>780839.8850884214</v>
       </c>
       <c r="AF7" t="n">
         <v>6.24963970517815e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.20370370370371</v>
       </c>
       <c r="AH7" t="n">
-        <v>549747.3968125099</v>
+        <v>706317.6223712435</v>
       </c>
     </row>
     <row r="8">
@@ -19603,28 +19603,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>445.0213226489383</v>
+        <v>571.5262771497129</v>
       </c>
       <c r="AB8" t="n">
-        <v>608.8978066034091</v>
+        <v>781.9874663560737</v>
       </c>
       <c r="AC8" t="n">
-        <v>550.785454534618</v>
+        <v>707.3556800933516</v>
       </c>
       <c r="AD8" t="n">
-        <v>445021.3226489383</v>
+        <v>571526.2771497129</v>
       </c>
       <c r="AE8" t="n">
-        <v>608897.8066034091</v>
+        <v>781987.4663560737</v>
       </c>
       <c r="AF8" t="n">
         <v>6.249356717575751e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.20370370370371</v>
       </c>
       <c r="AH8" t="n">
-        <v>550785.454534618</v>
+        <v>707355.6800933515</v>
       </c>
     </row>
   </sheetData>
@@ -19900,28 +19900,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>425.4976360835356</v>
+        <v>587.9975191040236</v>
       </c>
       <c r="AB2" t="n">
-        <v>582.1846373203632</v>
+        <v>804.5241462578715</v>
       </c>
       <c r="AC2" t="n">
-        <v>526.6217526357774</v>
+        <v>727.7414908957506</v>
       </c>
       <c r="AD2" t="n">
-        <v>425497.6360835356</v>
+        <v>587997.5191040236</v>
       </c>
       <c r="AE2" t="n">
-        <v>582184.6373203632</v>
+        <v>804524.1462578715</v>
       </c>
       <c r="AF2" t="n">
         <v>1.148442750814335e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.59490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>526621.7526357773</v>
+        <v>727741.4908957507</v>
       </c>
     </row>
   </sheetData>
@@ -20197,28 +20197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>501.8827939232687</v>
+        <v>652.8710344650159</v>
       </c>
       <c r="AB2" t="n">
-        <v>686.6981801520159</v>
+        <v>893.2869519922881</v>
       </c>
       <c r="AC2" t="n">
-        <v>621.1606696252558</v>
+        <v>808.0328990302547</v>
       </c>
       <c r="AD2" t="n">
-        <v>501882.7939232687</v>
+        <v>652871.0344650159</v>
       </c>
       <c r="AE2" t="n">
-        <v>686698.1801520159</v>
+        <v>893286.9519922881</v>
       </c>
       <c r="AF2" t="n">
         <v>6.911214176692366e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.34259259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>621160.6696252557</v>
+        <v>808032.8990302547</v>
       </c>
     </row>
     <row r="3">
@@ -20303,28 +20303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>395.6205464487792</v>
+        <v>527.7898910772018</v>
       </c>
       <c r="AB3" t="n">
-        <v>541.3054851979205</v>
+        <v>722.1454134184889</v>
       </c>
       <c r="AC3" t="n">
-        <v>489.6440494176502</v>
+        <v>653.2248686992809</v>
       </c>
       <c r="AD3" t="n">
-        <v>395620.5464487792</v>
+        <v>527789.8910772018</v>
       </c>
       <c r="AE3" t="n">
-        <v>541305.4851979205</v>
+        <v>722145.4134184889</v>
       </c>
       <c r="AF3" t="n">
         <v>8.093929878858453e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.75925925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>489644.0494176502</v>
+        <v>653224.8686992809</v>
       </c>
     </row>
     <row r="4">
@@ -20409,28 +20409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>395.8428470406299</v>
+        <v>528.0121916690525</v>
       </c>
       <c r="AB4" t="n">
-        <v>541.6096466749005</v>
+        <v>722.4495748954691</v>
       </c>
       <c r="AC4" t="n">
-        <v>489.9191821501607</v>
+        <v>653.5000014317915</v>
       </c>
       <c r="AD4" t="n">
-        <v>395842.8470406299</v>
+        <v>528012.1916690526</v>
       </c>
       <c r="AE4" t="n">
-        <v>541609.6466749005</v>
+        <v>722449.5748954691</v>
       </c>
       <c r="AF4" t="n">
         <v>8.102912529760981e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.73611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>489919.1821501607</v>
+        <v>653500.0014317915</v>
       </c>
     </row>
   </sheetData>
@@ -20706,28 +20706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>605.7212774385619</v>
+        <v>777.6761751039805</v>
       </c>
       <c r="AB2" t="n">
-        <v>828.7745743282198</v>
+        <v>1064.050851428729</v>
       </c>
       <c r="AC2" t="n">
-        <v>749.6774921467544</v>
+        <v>962.4993315731202</v>
       </c>
       <c r="AD2" t="n">
-        <v>605721.2774385619</v>
+        <v>777676.1751039806</v>
       </c>
       <c r="AE2" t="n">
-        <v>828774.5743282199</v>
+        <v>1064050.851428729</v>
       </c>
       <c r="AF2" t="n">
         <v>5.568618289947582e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.62962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>749677.4921467544</v>
+        <v>962499.3315731202</v>
       </c>
     </row>
     <row r="3">
@@ -20812,28 +20812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>459.1841218722408</v>
+        <v>592.886073352247</v>
       </c>
       <c r="AB3" t="n">
-        <v>628.2759733193359</v>
+        <v>811.2128818480833</v>
       </c>
       <c r="AC3" t="n">
-        <v>568.3141962166044</v>
+        <v>733.791862948932</v>
       </c>
       <c r="AD3" t="n">
-        <v>459184.1218722408</v>
+        <v>592886.073352247</v>
       </c>
       <c r="AE3" t="n">
-        <v>628275.9733193358</v>
+        <v>811212.8818480832</v>
       </c>
       <c r="AF3" t="n">
         <v>6.859875191282306e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.11342592592592</v>
       </c>
       <c r="AH3" t="n">
-        <v>568314.1962166044</v>
+        <v>733791.862948932</v>
       </c>
     </row>
     <row r="4">
@@ -20918,28 +20918,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>413.0977651558785</v>
+        <v>546.7313857983231</v>
       </c>
       <c r="AB4" t="n">
-        <v>565.2185868734457</v>
+        <v>748.0620021356975</v>
       </c>
       <c r="AC4" t="n">
-        <v>511.2749182315122</v>
+        <v>676.66801456348</v>
       </c>
       <c r="AD4" t="n">
-        <v>413097.7651558785</v>
+        <v>546731.3857983231</v>
       </c>
       <c r="AE4" t="n">
-        <v>565218.5868734457</v>
+        <v>748062.0021356975</v>
       </c>
       <c r="AF4" t="n">
         <v>7.301458723162164e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.41203703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>511274.9182315122</v>
+        <v>676668.01456348</v>
       </c>
     </row>
     <row r="5">
@@ -21024,28 +21024,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>412.6423267253607</v>
+        <v>536.7893302562447</v>
       </c>
       <c r="AB5" t="n">
-        <v>564.5954359202858</v>
+        <v>734.4588431304912</v>
       </c>
       <c r="AC5" t="n">
-        <v>510.7112399307241</v>
+        <v>664.363121961577</v>
       </c>
       <c r="AD5" t="n">
-        <v>412642.3267253607</v>
+        <v>536789.3302562447</v>
       </c>
       <c r="AE5" t="n">
-        <v>564595.4359202858</v>
+        <v>734458.8431304912</v>
       </c>
       <c r="AF5" t="n">
         <v>7.316789170306673e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.35416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>510711.2399307241</v>
+        <v>664363.121961577</v>
       </c>
     </row>
   </sheetData>
